--- a/OrangeHRM - Automation Testing - Test Summary Report.xlsx
+++ b/OrangeHRM - Automation Testing - Test Summary Report.xlsx
@@ -1142,16 +1142,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1657,16 +1657,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1769,7 +1769,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1840,10 +1839,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>190</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1868,7 +1867,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2178,8 +2176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2268,7 +2266,7 @@
       <c r="E3" s="55"/>
       <c r="F3" s="56"/>
       <c r="G3" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2300,7 +2298,7 @@
       <c r="E4" s="41"/>
       <c r="F4" s="42"/>
       <c r="G4" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2333,7 +2331,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="4">
         <f>SUM(G3:G4)</f>
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2462,7 +2460,7 @@
       <c r="F9" s="42"/>
       <c r="G9" s="43">
         <f>SUM(G5:G8)</f>
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2679,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="15">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
@@ -2688,7 +2686,7 @@
         <v>17</v>
       </c>
       <c r="G15" s="17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2721,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="15">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E16" s="16">
         <v>0</v>
@@ -2730,7 +2728,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2763,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="15">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="E17" s="16">
         <v>0</v>
@@ -2772,7 +2770,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2805,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="15">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="E18" s="16">
         <v>0</v>
@@ -2814,7 +2812,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -2856,7 +2854,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -3211,7 +3209,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3241,7 +3239,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3271,7 +3269,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3301,7 +3299,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4155,7 +4153,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="30">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -4187,7 +4185,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="32">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
